--- a/tables/Вокзал Красноуфимск.xlsx
+++ b/tables/Вокзал Красноуфимск.xlsx
@@ -572,12 +572,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -855,12 +855,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
